--- a/src/code/templates/NonmemFieldDicitonary.xlsx
+++ b/src/code/templates/NonmemFieldDicitonary.xlsx
@@ -173,9 +173,6 @@
     <t>SEX</t>
   </si>
   <si>
-    <t>Organism|Gender</t>
-  </si>
-  <si>
     <t>units are defined in corresponding output definitions</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   <si>
     <t>name of column in nonmem file; 
 columns with beginning# can not be evaluated</t>
+  </si>
+  <si>
+    <t>Gender</t>
   </si>
 </sst>
 </file>
@@ -556,7 +556,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -643,7 +643,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
@@ -769,10 +769,10 @@
         <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -820,7 +820,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">

--- a/src/code/templates/NonmemFieldDicitonary.xlsx
+++ b/src/code/templates/NonmemFieldDicitonary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="36" windowWidth="14376" windowHeight="9264"/>
+    <workbookView xWindow="480" yWindow="36" windowWidth="14376" windowHeight="9264" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="tpDictionary" sheetId="1" r:id="rId1"/>
@@ -71,9 +71,6 @@
     <t>DV</t>
   </si>
   <si>
-    <t>for covariates name used in report</t>
-  </si>
-  <si>
     <t>pathID to match covariates to correponding simulated population</t>
   </si>
   <si>
@@ -90,11 +87,6 @@
   </si>
   <si>
     <t>age</t>
-  </si>
-  <si>
-    <t>Used within matlab code, kursive identifiers are optional, 
-Do not change the identifier, there are used within code.
-It is possible to an new covariates</t>
   </si>
   <si>
     <t>identifier is used to identify one uniuqe individuum
@@ -184,6 +176,14 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>Used within matlab code, kursive identifiers are optional, 
+Do not change the identifier, there are used within code.
+It is possible to add new covariates</t>
+  </si>
+  <si>
+    <t>for covariates: name used in report</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,19 +239,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -555,224 +582,238 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -785,8 +826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B11:B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -804,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="41.4" x14ac:dyDescent="0.25">
@@ -812,7 +853,7 @@
         <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
@@ -820,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="55.2" x14ac:dyDescent="0.25">
@@ -828,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
